--- a/W5/Excel/SWP391-OnlineShopping-Weekly Report - W5.xlsx
+++ b/W5/Excel/SWP391-OnlineShopping-Weekly Report - W5.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -252,6 +252,21 @@
   </si>
   <si>
     <t>Các thành viên tiếp tục code các chức năng khác trong file Iteration 3</t>
+  </si>
+  <si>
+    <t>14. Tên màn hình -&gt; Luồng màn hình -&gt; Phân bổ tên màn hình giao cho ai (Iteration nào?)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15. Hoàn thiện architecture </t>
+  </si>
+  <si>
+    <t>16. Hoàn thiện file SQL (Create, drop)</t>
+  </si>
+  <si>
+    <t>17. Vẽ System Architecture ( Hardware, OS, Web Service, Framework, Môi trường phát triển, Database)</t>
+  </si>
+  <si>
+    <t>18. Code được ít nào thì test rồi commit lên github luôn</t>
   </si>
 </sst>
 </file>
@@ -433,6 +448,87 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>51048</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>161089</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449580" y="7894320"/>
+          <a:ext cx="10879068" cy="7659169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31996</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>25713</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="449580" y="15575280"/>
+          <a:ext cx="10860016" cy="6792273"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,7 +1172,7 @@
         <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>48</v>
@@ -1204,6 +1300,9 @@
       <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
@@ -1218,6 +1317,9 @@
       <c r="D26" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="E26" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1226,18 +1328,27 @@
       <c r="B27" s="2"/>
       <c r="C27" s="11"/>
       <c r="D27" s="2"/>
+      <c r="E27" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="9"/>
+      <c r="E28" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:38" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
       <c r="B29" s="14"/>
       <c r="C29" s="13"/>
       <c r="D29" s="15"/>
+      <c r="E29" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -1301,6 +1412,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>